--- a/log_history/Y4_B2425_Cardiology_scanner1766491726772_ff7a8bc032392dbe2153bc04a01d1584b48874b3b8483d45d4fa6e7731a9b82b.xlsx
+++ b/log_history/Y4_B2425_Cardiology_scanner1766491726772_ff7a8bc032392dbe2153bc04a01d1584b48874b3b8483d45d4fa6e7731a9b82b.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y4_B2425_Cardiology_scanner1766491726772_ff7a8bc032392dbe2153bc04a01d1584b48874b3b8483d45d4fa6e7731a9b82b.xlsx
+++ b/log_history/Y4_B2425_Cardiology_scanner1766491726772_ff7a8bc032392dbe2153bc04a01d1584b48874b3b8483d45d4fa6e7731a9b82b.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Cardiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y4_B2425_Cardiology_scanner1766491726772_ff7a8bc032392dbe2153bc04a01d1584b48874b3b8483d45d4fa6e7731a9b82b.xlsx
+++ b/log_history/Y4_B2425_Cardiology_scanner1766491726772_ff7a8bc032392dbe2153bc04a01d1584b48874b3b8483d45d4fa6e7731a9b82b.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Cardiology" sheetId="1" r:id="rId1"/>
+    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
